--- a/epictrack-api/src/api/templates/event_templates/minister_designation/002_Minister_Designation.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/minister_designation/002_Minister_Designation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\minister_designation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D18532-A47B-45C9-9330-87D043E6781D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91EBDCC-E964-4592-815E-19A900ED0742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phases" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="202">
   <si>
     <t>No</t>
   </si>
@@ -79,9 +79,6 @@
     <t>REGULAR</t>
   </si>
   <si>
-    <t>#FFFFFF</t>
-  </si>
-  <si>
     <t>HIDDEN</t>
   </si>
   <si>
@@ -490,9 +487,6 @@
     <t>Minister's Designation Decision</t>
   </si>
   <si>
-    <t>====================================================</t>
-  </si>
-  <si>
     <t>Start of Intake (e.g. Initial Meeting, Date Confirmation, or Draft Sharing)</t>
   </si>
   <si>
@@ -653,6 +647,9 @@
   </si>
   <si>
     <t>{"phase_name":"Minister's Designation Application Development","work_type_id": 2, "ea_act_id": 3, "event_name": "Start of Minister's Designation Application Development (Submitter Time)", "start_at": 0 }</t>
+  </si>
+  <si>
+    <t>#3eb1d7</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1255,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C5"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -1306,10 +1303,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>9</v>
@@ -1321,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>10</v>
@@ -1335,10 +1332,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>9</v>
@@ -1350,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>10</v>
@@ -1364,10 +1361,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>9</v>
@@ -1379,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="I4" s="2">
         <v>3</v>
@@ -1393,10 +1390,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>9</v>
@@ -1408,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
@@ -1941,10 +1938,10 @@
   <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="A58" sqref="A58:E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -1966,31 +1963,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>4</v>
@@ -2010,32 +2007,32 @@
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E2" s="4" t="str">
         <f>IF((C2=""),"",VLOOKUP(C2,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Intake</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I2" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="M2" s="2">
         <v>1</v>
@@ -2049,20 +2046,20 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="4" t="str">
         <f>IF((C3=""),"",VLOOKUP(C3,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Intake</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="11" t="b">
         <v>0</v>
@@ -2074,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M3" s="2">
         <v>2</v>
@@ -2088,20 +2085,20 @@
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" s="4" t="str">
         <f>IF((C4=""),"",VLOOKUP(C4,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Intake</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="11" t="b">
         <v>0</v>
@@ -2113,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M4" s="2">
         <v>3</v>
@@ -2130,20 +2127,20 @@
         <v>1</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>IF((C5=""),"",VLOOKUP(C5,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Intake</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="11" t="b">
         <v>0</v>
@@ -2155,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M5" s="2">
         <v>4</v>
@@ -2169,20 +2166,20 @@
         <v>1</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E6" s="4" t="str">
         <f>IF((C6=""),"",VLOOKUP(C6,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Intake</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="11" t="b">
         <v>0</v>
@@ -2194,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M6" s="2">
         <v>5</v>
@@ -2208,20 +2205,20 @@
         <v>1</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E7" s="4" t="str">
         <f>IF((C7=""),"",VLOOKUP(C7,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Intake</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="11" t="b">
         <v>0</v>
@@ -2233,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" s="2">
         <v>6</v>
@@ -2247,20 +2244,20 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="4" t="str">
         <f>IF((C8=""),"",VLOOKUP(C8,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Intake</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="11" t="b">
         <v>0</v>
@@ -2272,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M8" s="2">
         <v>7</v>
@@ -2286,20 +2283,20 @@
         <v>1</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E9" s="4" t="str">
         <f>IF((C9=""),"",VLOOKUP(C9,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Intake</v>
       </c>
       <c r="F9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="I9" s="11" t="b">
         <v>0</v>
@@ -2311,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M9" s="2">
         <v>8</v>
@@ -2325,32 +2322,32 @@
         <v>2</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E10" s="4" t="str">
         <f>IF((C10=""),"",VLOOKUP(C10,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I10" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="M10" s="2">
         <v>9</v>
@@ -2364,20 +2361,20 @@
         <v>2</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E11" s="4" t="str">
         <f>IF((C11=""),"",VLOOKUP(C11,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="11" t="b">
         <v>0</v>
@@ -2389,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M11" s="2">
         <v>10</v>
@@ -2403,20 +2400,20 @@
         <v>2</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E12" s="4" t="str">
         <f>IF((C12=""),"",VLOOKUP(C12,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="11" t="b">
         <v>0</v>
@@ -2428,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M12" s="2">
         <v>11</v>
@@ -2442,20 +2439,20 @@
         <v>2</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E13" s="4" t="str">
         <f>IF((C13=""),"",VLOOKUP(C13,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="11" t="b">
         <v>0</v>
@@ -2467,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M13" s="2">
         <v>12</v>
@@ -2481,20 +2478,20 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="4" t="str">
         <f>IF((C14=""),"",VLOOKUP(C14,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I14" s="11" t="b">
         <v>0</v>
@@ -2506,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M14" s="2">
         <v>13</v>
@@ -2520,20 +2517,20 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E15" s="4" t="str">
         <f>IF((C15=""),"",VLOOKUP(C15,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I15" s="11" t="b">
         <v>0</v>
@@ -2545,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M15" s="2">
         <v>14</v>
@@ -2559,20 +2556,20 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="4" t="str">
         <f>IF((C16=""),"",VLOOKUP(C16,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="H16" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I16" s="11" t="b">
         <v>1</v>
@@ -2584,7 +2581,7 @@
         <v>30</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M16" s="2">
         <v>15</v>
@@ -2601,20 +2598,20 @@
         <v>2</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="4" t="str">
         <f>IF((C17=""),"",VLOOKUP(C17,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="11" t="b">
         <v>0</v>
@@ -2626,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M17" s="2">
         <v>16</v>
@@ -2643,20 +2640,20 @@
         <v>2</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="4" t="str">
         <f>IF((C18=""),"",VLOOKUP(C18,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I18" s="11" t="b">
         <v>0</v>
@@ -2668,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M18" s="2">
         <v>17</v>
@@ -2685,20 +2682,20 @@
         <v>2</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="4" t="str">
         <f>IF((C19=""),"",VLOOKUP(C19,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I19" s="11" t="b">
         <v>0</v>
@@ -2710,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M19" s="2">
         <v>18</v>
@@ -2727,32 +2724,32 @@
         <v>2</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="4" t="str">
         <f>IF((C20=""),"",VLOOKUP(C20,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="11" t="b">
         <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M20" s="2">
         <v>19</v>
@@ -2766,20 +2763,20 @@
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="4" t="str">
         <f>IF((C21=""),"",VLOOKUP(C21,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I21" s="11" t="b">
         <v>0</v>
@@ -2791,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M21" s="2">
         <v>20</v>
@@ -2805,20 +2802,20 @@
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" s="4" t="str">
         <f>IF((C22=""),"",VLOOKUP(C22,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I22" s="11" t="b">
         <v>0</v>
@@ -2830,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M22" s="2">
         <v>21</v>
@@ -2844,20 +2841,20 @@
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="4" t="str">
         <f>IF((C23=""),"",VLOOKUP(C23,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="H23" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I23" s="11" t="b">
         <v>1</v>
@@ -2869,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M23" s="2">
         <v>22</v>
@@ -2886,20 +2883,20 @@
         <v>2</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="4" t="str">
         <f>IF((C24=""),"",VLOOKUP(C24,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I24" s="11" t="b">
         <v>0</v>
@@ -2911,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M24" s="2">
         <v>23</v>
@@ -2928,20 +2925,20 @@
         <v>2</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="4" t="str">
         <f>IF((C25=""),"",VLOOKUP(C25,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I25" s="11" t="b">
         <v>0</v>
@@ -2953,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M25" s="2">
         <v>24</v>
@@ -2967,20 +2964,20 @@
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="4" t="str">
         <f>IF((C26=""),"",VLOOKUP(C26,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I26" s="11" t="b">
         <v>1</v>
@@ -2992,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M26" s="2">
         <v>25</v>
@@ -3009,20 +3006,20 @@
         <v>2</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="4" t="str">
         <f>IF((C27=""),"",VLOOKUP(C27,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I27" s="11" t="b">
         <v>0</v>
@@ -3034,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M27" s="2">
         <v>26</v>
@@ -3051,20 +3048,20 @@
         <v>2</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" s="4" t="str">
         <f>IF((C28=""),"",VLOOKUP(C28,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I28" s="11" t="b">
         <v>0</v>
@@ -3076,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M28" s="2">
         <v>27</v>
@@ -3090,20 +3087,20 @@
         <v>2</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E29" s="4" t="str">
         <f>IF((C29=""),"",VLOOKUP(C29,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I29" s="11" t="b">
         <v>0</v>
@@ -3115,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M29" s="2">
         <v>28</v>
@@ -3132,20 +3129,20 @@
         <v>2</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="4" t="str">
         <f>IF((C30=""),"",VLOOKUP(C30,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I30" s="11" t="b">
         <v>0</v>
@@ -3157,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M30" s="2">
         <v>29</v>
@@ -3174,20 +3171,20 @@
         <v>2</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E31" s="4" t="str">
         <f>IF((C31=""),"",VLOOKUP(C31,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I31" s="11" t="b">
         <v>0</v>
@@ -3199,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M31" s="2">
         <v>30</v>
@@ -3213,20 +3210,20 @@
         <v>2</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E32" s="4" t="str">
         <f>IF((C32=""),"",VLOOKUP(C32,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I32" s="11" t="b">
         <v>0</v>
@@ -3238,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M32" s="2">
         <v>31</v>
@@ -3255,20 +3252,20 @@
         <v>2</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33" s="4" t="str">
         <f>IF((C33=""),"",VLOOKUP(C33,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I33" s="11" t="b">
         <v>0</v>
@@ -3280,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M33" s="2">
         <v>32</v>
@@ -3297,20 +3294,20 @@
         <v>2</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E34" s="4" t="str">
         <f>IF((C34=""),"",VLOOKUP(C34,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I34" s="11" t="b">
         <v>0</v>
@@ -3322,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M34" s="2">
         <v>33</v>
@@ -3336,20 +3333,20 @@
         <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35" s="4" t="str">
         <f>IF((C35=""),"",VLOOKUP(C35,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I35" s="11" t="b">
         <v>0</v>
@@ -3361,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M35" s="2">
         <v>34</v>
@@ -3375,20 +3372,20 @@
         <v>2</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E36" s="4" t="str">
         <f>IF((C36=""),"",VLOOKUP(C36,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Review</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I36" s="11" t="b">
         <v>0</v>
@@ -3400,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M36" s="2">
         <v>35</v>
@@ -3414,32 +3411,32 @@
         <v>3</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E37" s="4" t="str">
         <f>IF((C37=""),"",VLOOKUP(C37,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Development</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="I37" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I37" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="M37" s="2">
         <v>36</v>
@@ -3453,20 +3450,20 @@
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E38" s="4" t="str">
         <f>IF((C38=""),"",VLOOKUP(C38,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Development</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I38" s="11" t="b">
         <v>0</v>
@@ -3478,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M38" s="2">
         <v>37</v>
@@ -3492,20 +3489,20 @@
         <v>3</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E39" s="4" t="str">
         <f>IF((C39=""),"",VLOOKUP(C39,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Development</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I39" s="11" t="b">
         <v>0</v>
@@ -3517,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M39" s="2">
         <v>38</v>
@@ -3534,20 +3531,20 @@
         <v>3</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E40" s="4" t="str">
         <f>IF((C40=""),"",VLOOKUP(C40,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Development</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I40" s="11" t="b">
         <v>0</v>
@@ -3559,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M40" s="2">
         <v>39</v>
@@ -3573,20 +3570,20 @@
         <v>3</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E41" s="4" t="str">
         <f>IF((C41=""),"",VLOOKUP(C41,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Development</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I41" s="11" t="b">
         <v>1</v>
@@ -3598,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M41" s="2">
         <v>40</v>
@@ -3612,20 +3609,20 @@
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E42" s="4" t="str">
         <f>IF((C42=""),"",VLOOKUP(C42,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Development</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I42" s="11" t="b">
         <v>0</v>
@@ -3637,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M42" s="2">
         <v>41</v>
@@ -3651,20 +3648,20 @@
         <v>3</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E43" s="4" t="str">
         <f>IF((C43=""),"",VLOOKUP(C43,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Application Development</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I43" s="11" t="b">
         <v>0</v>
@@ -3676,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M43" s="2">
         <v>42</v>
@@ -3690,32 +3687,32 @@
         <v>4</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E44" s="4" t="str">
         <f>IF((C44=""),"",VLOOKUP(C44,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Decision</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G44" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="I44" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I44" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="M44" s="2">
         <v>43</v>
@@ -3729,20 +3726,20 @@
         <v>4</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E45" s="4" t="str">
         <f>IF((C45=""),"",VLOOKUP(C45,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Decision</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I45" s="11" t="b">
         <v>0</v>
@@ -3754,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M45" s="2">
         <v>44</v>
@@ -3771,20 +3768,20 @@
         <v>4</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E46" s="4" t="str">
         <f>IF((C46=""),"",VLOOKUP(C46,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Decision</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I46" s="11" t="b">
         <v>0</v>
@@ -3796,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M46" s="2">
         <v>45</v>
@@ -3810,20 +3807,20 @@
         <v>4</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E47" s="4" t="str">
         <f>IF((C47=""),"",VLOOKUP(C47,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Decision</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I47" s="11" t="b">
         <v>0</v>
@@ -3835,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M47" s="2">
         <v>46</v>
@@ -3849,20 +3846,20 @@
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E48" s="4" t="str">
         <f>IF((C48=""),"",VLOOKUP(C48,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Decision</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I48" s="11" t="b">
         <v>1</v>
@@ -3874,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M48" s="2">
         <v>47</v>
@@ -3891,20 +3888,20 @@
         <v>4</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E49" s="4" t="str">
         <f>IF((C49=""),"",VLOOKUP(C49,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Decision</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I49" s="11" t="b">
         <v>0</v>
@@ -3916,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M49" s="2">
         <v>48</v>
@@ -3933,20 +3930,20 @@
         <v>4</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E50" s="4" t="str">
         <f>IF((C50=""),"",VLOOKUP(C50,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Decision</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I50" s="11" t="b">
         <v>0</v>
@@ -3958,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M50" s="2">
         <v>49</v>
@@ -3972,20 +3969,20 @@
         <v>4</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E51" s="4" t="str">
         <f>IF((C51=""),"",VLOOKUP(C51,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Decision</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I51" s="11" t="b">
         <v>0</v>
@@ -3997,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M51" s="2">
         <v>50</v>
@@ -4014,20 +4011,20 @@
         <v>4</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E52" s="4" t="str">
         <f>IF((C52=""),"",VLOOKUP(C52,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Decision</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I52" s="11" t="b">
         <v>0</v>
@@ -4039,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M52" s="2">
         <v>51</v>
@@ -4056,20 +4053,20 @@
         <v>4</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E53" s="4" t="str">
         <f>IF((C53=""),"",VLOOKUP(C53,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Decision</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I53" s="11" t="b">
         <v>0</v>
@@ -4081,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M53" s="2">
         <v>52</v>
@@ -4095,20 +4092,20 @@
         <v>4</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E54" s="4" t="str">
         <f>IF((C54=""),"",VLOOKUP(C54,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Decision</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I54" s="11" t="b">
         <v>0</v>
@@ -4120,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M54" s="2">
         <v>53</v>
@@ -4134,20 +4131,20 @@
         <v>4</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E55" s="4" t="str">
         <f>IF((C55=""),"",VLOOKUP(C55,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Decision</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I55" s="11" t="b">
         <v>0</v>
@@ -4159,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M55" s="2">
         <v>54</v>
@@ -4176,20 +4173,20 @@
         <v>4</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E56" s="4" t="str">
         <f>IF((C56=""),"",VLOOKUP(C56,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Decision</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I56" s="11" t="b">
         <v>0</v>
@@ -4201,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M56" s="2">
         <v>55</v>
@@ -4218,20 +4215,20 @@
         <v>4</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E57" s="4" t="str">
         <f>IF((C57=""),"",VLOOKUP(C57,Phases!$A$2:$B$5,2,FALSE))</f>
         <v>Minister's Designation Decision</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I57" s="11" t="b">
         <v>0</v>
@@ -4243,2077 +4240,859 @@
         <v>0</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M57" s="2">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="2">
-        <v>57</v>
-      </c>
-      <c r="C58" s="3">
-        <v>4</v>
-      </c>
-      <c r="E58" s="4" t="str">
-        <f>IF((C58=""),"",VLOOKUP(C58,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="C58" s="3"/>
+      <c r="E58" s="4"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I58" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K58" s="2">
-        <v>0</v>
-      </c>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="K58" s="2"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="2">
-        <v>57</v>
-      </c>
+      <c r="M58" s="2"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="2">
-        <v>58</v>
-      </c>
-      <c r="C59" s="3">
-        <v>4</v>
-      </c>
-      <c r="E59" s="4" t="str">
-        <f>IF((C59=""),"",VLOOKUP(C59,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="C59" s="3"/>
+      <c r="E59" s="4"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
-      <c r="H59" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I59" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K59" s="2">
-        <v>0</v>
-      </c>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="2">
-        <v>58</v>
-      </c>
+      <c r="M59" s="2"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="2">
-        <v>59</v>
-      </c>
-      <c r="C60" s="3">
-        <v>4</v>
-      </c>
-      <c r="E60" s="4" t="str">
-        <f>IF((C60=""),"",VLOOKUP(C60,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="C60" s="3"/>
+      <c r="E60" s="4"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
-      <c r="H60" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I60" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K60" s="2">
-        <v>0</v>
-      </c>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="K60" s="2"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="2">
-        <v>59</v>
-      </c>
+      <c r="M60" s="2"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="2">
-        <v>60</v>
-      </c>
-      <c r="C61" s="3">
-        <v>4</v>
-      </c>
-      <c r="E61" s="4" t="str">
-        <f>IF((C61=""),"",VLOOKUP(C61,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="C61" s="3"/>
+      <c r="E61" s="4"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
-      <c r="H61" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I61" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K61" s="2">
-        <v>0</v>
-      </c>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="2">
-        <v>60</v>
-      </c>
+      <c r="M61" s="2"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="2">
-        <v>61</v>
-      </c>
-      <c r="C62" s="3">
-        <v>4</v>
-      </c>
-      <c r="E62" s="4" t="str">
-        <f>IF((C62=""),"",VLOOKUP(C62,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="C62" s="3"/>
+      <c r="E62" s="4"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
-      <c r="H62" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I62" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K62" s="2">
-        <v>0</v>
-      </c>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="K62" s="2"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="2">
-        <v>61</v>
-      </c>
+      <c r="M62" s="2"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="2">
-        <v>62</v>
-      </c>
-      <c r="C63" s="3">
-        <v>4</v>
-      </c>
-      <c r="E63" s="4" t="str">
-        <f>IF((C63=""),"",VLOOKUP(C63,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="C63" s="3"/>
+      <c r="E63" s="4"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
-      <c r="H63" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I63" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K63" s="2">
-        <v>0</v>
-      </c>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="2">
-        <v>62</v>
-      </c>
+      <c r="M63" s="2"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="2">
-        <v>63</v>
-      </c>
-      <c r="C64" s="3">
-        <v>4</v>
-      </c>
-      <c r="E64" s="4" t="str">
-        <f>IF((C64=""),"",VLOOKUP(C64,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="C64" s="3"/>
+      <c r="E64" s="4"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I64" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K64" s="2">
-        <v>0</v>
-      </c>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="K64" s="2"/>
       <c r="L64" s="2"/>
-      <c r="M64" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="2">
-        <v>64</v>
-      </c>
-      <c r="C65" s="3">
-        <v>4</v>
-      </c>
-      <c r="E65" s="4" t="str">
-        <f>IF((C65=""),"",VLOOKUP(C65,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="3:13">
+      <c r="C65" s="3"/>
+      <c r="E65" s="4"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
-      <c r="H65" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I65" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K65" s="2">
-        <v>0</v>
-      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="2">
-        <v>65</v>
-      </c>
-      <c r="C66" s="3">
-        <v>4</v>
-      </c>
-      <c r="E66" s="4" t="str">
-        <f>IF((C66=""),"",VLOOKUP(C66,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="3:13">
+      <c r="C66" s="3"/>
+      <c r="E66" s="4"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I66" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K66" s="2">
-        <v>0</v>
-      </c>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="K66" s="2"/>
       <c r="L66" s="2"/>
-      <c r="M66" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="2">
-        <v>66</v>
-      </c>
-      <c r="C67" s="3">
-        <v>4</v>
-      </c>
-      <c r="E67" s="4" t="str">
-        <f>IF((C67=""),"",VLOOKUP(C67,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="3:13">
+      <c r="C67" s="3"/>
+      <c r="E67" s="4"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
-      <c r="H67" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I67" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K67" s="2">
-        <v>0</v>
-      </c>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="2">
-        <v>67</v>
-      </c>
-      <c r="C68" s="3">
-        <v>4</v>
-      </c>
-      <c r="E68" s="4" t="str">
-        <f>IF((C68=""),"",VLOOKUP(C68,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="3:13">
+      <c r="C68" s="3"/>
+      <c r="E68" s="4"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I68" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K68" s="2">
-        <v>0</v>
-      </c>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="2">
-        <v>68</v>
-      </c>
-      <c r="C69" s="3">
-        <v>4</v>
-      </c>
-      <c r="E69" s="4" t="str">
-        <f>IF((C69=""),"",VLOOKUP(C69,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="3:13">
+      <c r="C69" s="3"/>
+      <c r="E69" s="4"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
-      <c r="H69" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I69" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K69" s="2">
-        <v>0</v>
-      </c>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="2">
-        <v>69</v>
-      </c>
-      <c r="C70" s="3">
-        <v>4</v>
-      </c>
-      <c r="E70" s="4" t="str">
-        <f>IF((C70=""),"",VLOOKUP(C70,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="3:13">
+      <c r="C70" s="3"/>
+      <c r="E70" s="4"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
-      <c r="H70" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I70" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K70" s="2">
-        <v>0</v>
-      </c>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="2">
-        <v>70</v>
-      </c>
-      <c r="C71" s="3">
-        <v>4</v>
-      </c>
-      <c r="E71" s="4" t="str">
-        <f>IF((C71=""),"",VLOOKUP(C71,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M70" s="2"/>
+    </row>
+    <row r="71" spans="3:13">
+      <c r="C71" s="3"/>
+      <c r="E71" s="4"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
-      <c r="H71" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I71" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K71" s="2">
-        <v>0</v>
-      </c>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="2">
-        <v>71</v>
-      </c>
-      <c r="C72" s="3">
-        <v>4</v>
-      </c>
-      <c r="E72" s="4" t="str">
-        <f>IF((C72=""),"",VLOOKUP(C72,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M71" s="2"/>
+    </row>
+    <row r="72" spans="3:13">
+      <c r="C72" s="3"/>
+      <c r="E72" s="4"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
-      <c r="H72" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I72" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K72" s="2">
-        <v>0</v>
-      </c>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="2">
-        <v>72</v>
-      </c>
-      <c r="C73" s="3">
-        <v>4</v>
-      </c>
-      <c r="E73" s="4" t="str">
-        <f>IF((C73=""),"",VLOOKUP(C73,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="3:13">
+      <c r="C73" s="3"/>
+      <c r="E73" s="4"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
-      <c r="H73" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I73" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K73" s="2">
-        <v>0</v>
-      </c>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="2">
-        <v>73</v>
-      </c>
-      <c r="C74" s="3">
-        <v>4</v>
-      </c>
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" spans="3:13">
+      <c r="C74" s="3"/>
       <c r="D74" s="12"/>
-      <c r="E74" s="4" t="str">
-        <f>IF((C74=""),"",VLOOKUP(C74,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="E74" s="4"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
-      <c r="H74" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I74" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K74" s="2">
-        <v>0</v>
-      </c>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="2">
-        <v>74</v>
-      </c>
-      <c r="C75" s="3">
-        <v>4</v>
-      </c>
-      <c r="E75" s="4" t="str">
-        <f>IF((C75=""),"",VLOOKUP(C75,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="3:13">
+      <c r="C75" s="3"/>
+      <c r="E75" s="4"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
-      <c r="H75" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I75" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K75" s="2">
-        <v>0</v>
-      </c>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="2">
-        <v>75</v>
-      </c>
-      <c r="C76" s="3">
-        <v>4</v>
-      </c>
-      <c r="E76" s="4" t="str">
-        <f>IF((C76=""),"",VLOOKUP(C76,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" spans="3:13">
+      <c r="C76" s="3"/>
+      <c r="E76" s="4"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
-      <c r="H76" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I76" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K76" s="2">
-        <v>0</v>
-      </c>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="2">
-        <v>76</v>
-      </c>
-      <c r="C77" s="3">
-        <v>4</v>
-      </c>
-      <c r="E77" s="4" t="str">
-        <f>IF((C77=""),"",VLOOKUP(C77,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" spans="3:13">
+      <c r="C77" s="3"/>
+      <c r="E77" s="4"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
-      <c r="H77" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I77" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K77" s="2">
-        <v>0</v>
-      </c>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="2">
-        <v>77</v>
-      </c>
-      <c r="C78" s="3">
-        <v>4</v>
-      </c>
-      <c r="E78" s="4" t="str">
-        <f>IF((C78=""),"",VLOOKUP(C78,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="3:13">
+      <c r="C78" s="3"/>
+      <c r="E78" s="4"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
-      <c r="H78" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I78" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K78" s="2">
-        <v>0</v>
-      </c>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="2">
-        <v>78</v>
-      </c>
-      <c r="C79" s="3">
-        <v>4</v>
-      </c>
-      <c r="E79" s="4" t="str">
-        <f>IF((C79=""),"",VLOOKUP(C79,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="3:13">
+      <c r="C79" s="3"/>
+      <c r="E79" s="4"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
-      <c r="H79" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I79" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K79" s="2">
-        <v>0</v>
-      </c>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="2">
-        <v>79</v>
-      </c>
-      <c r="C80" s="3">
-        <v>4</v>
-      </c>
-      <c r="E80" s="4" t="str">
-        <f>IF((C80=""),"",VLOOKUP(C80,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="3:13">
+      <c r="C80" s="3"/>
+      <c r="E80" s="4"/>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
-      <c r="H80" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I80" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K80" s="2">
-        <v>0</v>
-      </c>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="K80" s="2"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="2">
-        <v>80</v>
-      </c>
-      <c r="C81" s="3">
-        <v>4</v>
-      </c>
-      <c r="E81" s="4" t="str">
-        <f>IF((C81=""),"",VLOOKUP(C81,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13">
+      <c r="C81" s="3"/>
+      <c r="E81" s="4"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
-      <c r="H81" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I81" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K81" s="2">
-        <v>0</v>
-      </c>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="K81" s="2"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="2">
-        <v>81</v>
-      </c>
-      <c r="C82" s="3">
-        <v>4</v>
-      </c>
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" spans="3:13">
+      <c r="C82" s="3"/>
       <c r="D82" s="12"/>
-      <c r="E82" s="4" t="str">
-        <f>IF((C82=""),"",VLOOKUP(C82,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="E82" s="4"/>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
-      <c r="H82" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I82" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K82" s="2">
-        <v>0</v>
-      </c>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="K82" s="2"/>
       <c r="L82" s="2"/>
-      <c r="M82" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="2">
-        <v>82</v>
-      </c>
-      <c r="C83" s="3">
-        <v>4</v>
-      </c>
-      <c r="E83" s="4" t="str">
-        <f>IF((C83=""),"",VLOOKUP(C83,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M82" s="2"/>
+    </row>
+    <row r="83" spans="3:13">
+      <c r="C83" s="3"/>
+      <c r="E83" s="4"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
-      <c r="H83" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I83" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K83" s="2">
-        <v>0</v>
-      </c>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="K83" s="2"/>
       <c r="L83" s="2"/>
-      <c r="M83" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="2">
-        <v>83</v>
-      </c>
-      <c r="C84" s="3">
-        <v>4</v>
-      </c>
-      <c r="E84" s="4" t="str">
-        <f>IF((C84=""),"",VLOOKUP(C84,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" spans="3:13">
+      <c r="C84" s="3"/>
+      <c r="E84" s="4"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
-      <c r="H84" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I84" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K84" s="2">
-        <v>0</v>
-      </c>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="K84" s="2"/>
       <c r="L84" s="2"/>
-      <c r="M84" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="2">
-        <v>84</v>
-      </c>
-      <c r="C85" s="3">
-        <v>4</v>
-      </c>
-      <c r="E85" s="4" t="str">
-        <f>IF((C85=""),"",VLOOKUP(C85,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" spans="3:13">
+      <c r="C85" s="3"/>
+      <c r="E85" s="4"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
-      <c r="H85" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I85" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K85" s="2">
-        <v>0</v>
-      </c>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="K85" s="2"/>
       <c r="L85" s="2"/>
-      <c r="M85" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="2">
-        <v>85</v>
-      </c>
-      <c r="C86" s="3">
-        <v>4</v>
-      </c>
-      <c r="E86" s="4" t="str">
-        <f>IF((C86=""),"",VLOOKUP(C86,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M85" s="2"/>
+    </row>
+    <row r="86" spans="3:13">
+      <c r="C86" s="3"/>
+      <c r="E86" s="4"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
-      <c r="H86" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I86" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K86" s="2">
-        <v>0</v>
-      </c>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-      <c r="M86" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="2">
-        <v>86</v>
-      </c>
-      <c r="C87" s="3">
-        <v>4</v>
-      </c>
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="3:13">
+      <c r="C87" s="3"/>
       <c r="D87" s="27"/>
-      <c r="E87" s="4" t="str">
-        <f>IF((C87=""),"",VLOOKUP(C87,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="E87" s="4"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
-      <c r="H87" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I87" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K87" s="2">
-        <v>0</v>
-      </c>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-      <c r="M87" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="2">
-        <v>87</v>
-      </c>
-      <c r="C88" s="3">
-        <v>4</v>
-      </c>
-      <c r="E88" s="4" t="str">
-        <f>IF((C88=""),"",VLOOKUP(C88,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M87" s="2"/>
+    </row>
+    <row r="88" spans="3:13">
+      <c r="C88" s="3"/>
+      <c r="E88" s="4"/>
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
-      <c r="H88" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I88" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K88" s="2">
-        <v>0</v>
-      </c>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="K88" s="2"/>
       <c r="L88" s="2"/>
-      <c r="M88" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="2">
-        <v>88</v>
-      </c>
-      <c r="C89" s="3">
-        <v>4</v>
-      </c>
-      <c r="E89" s="4" t="str">
-        <f>IF((C89=""),"",VLOOKUP(C89,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="3:13">
+      <c r="C89" s="3"/>
+      <c r="E89" s="4"/>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
-      <c r="H89" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I89" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K89" s="2">
-        <v>0</v>
-      </c>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="K89" s="2"/>
       <c r="L89" s="2"/>
-      <c r="M89" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="2">
-        <v>89</v>
-      </c>
-      <c r="C90" s="3">
-        <v>4</v>
-      </c>
-      <c r="E90" s="4" t="str">
-        <f>IF((C90=""),"",VLOOKUP(C90,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M89" s="2"/>
+    </row>
+    <row r="90" spans="3:13">
+      <c r="C90" s="3"/>
+      <c r="E90" s="4"/>
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
-      <c r="H90" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I90" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K90" s="2">
-        <v>0</v>
-      </c>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="K90" s="2"/>
       <c r="L90" s="2"/>
-      <c r="M90" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="2">
-        <v>90</v>
-      </c>
-      <c r="C91" s="3">
-        <v>4</v>
-      </c>
-      <c r="E91" s="4" t="str">
-        <f>IF((C91=""),"",VLOOKUP(C91,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" spans="3:13">
+      <c r="C91" s="3"/>
+      <c r="E91" s="4"/>
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
-      <c r="H91" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I91" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" s="2">
-        <v>0</v>
-      </c>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="K91" s="2"/>
       <c r="L91" s="2"/>
-      <c r="M91" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="2">
-        <v>91</v>
-      </c>
-      <c r="C92" s="3">
-        <v>4</v>
-      </c>
+      <c r="M91" s="2"/>
+    </row>
+    <row r="92" spans="3:13">
+      <c r="C92" s="3"/>
       <c r="D92" s="12"/>
-      <c r="E92" s="4" t="str">
-        <f>IF((C92=""),"",VLOOKUP(C92,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="E92" s="4"/>
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
-      <c r="H92" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I92" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K92" s="2">
-        <v>0</v>
-      </c>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="K92" s="2"/>
       <c r="L92" s="2"/>
-      <c r="M92" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="2">
-        <v>92</v>
-      </c>
-      <c r="C93" s="3">
-        <v>4</v>
-      </c>
-      <c r="E93" s="4" t="str">
-        <f>IF((C93=""),"",VLOOKUP(C93,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M92" s="2"/>
+    </row>
+    <row r="93" spans="3:13">
+      <c r="C93" s="3"/>
+      <c r="E93" s="4"/>
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
-      <c r="H93" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I93" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K93" s="2">
-        <v>0</v>
-      </c>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="K93" s="2"/>
       <c r="L93" s="2"/>
-      <c r="M93" s="2">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="2">
-        <v>93</v>
-      </c>
-      <c r="C94" s="3">
-        <v>4</v>
-      </c>
-      <c r="E94" s="4" t="str">
-        <f>IF((C94=""),"",VLOOKUP(C94,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M93" s="2"/>
+    </row>
+    <row r="94" spans="3:13">
+      <c r="C94" s="3"/>
+      <c r="E94" s="4"/>
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
-      <c r="H94" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I94" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K94" s="2">
-        <v>0</v>
-      </c>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="K94" s="2"/>
       <c r="L94" s="2"/>
-      <c r="M94" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" s="2">
-        <v>94</v>
-      </c>
-      <c r="C95" s="3">
-        <v>4</v>
-      </c>
-      <c r="E95" s="4" t="str">
-        <f>IF((C95=""),"",VLOOKUP(C95,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M94" s="2"/>
+    </row>
+    <row r="95" spans="3:13">
+      <c r="C95" s="3"/>
+      <c r="E95" s="4"/>
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
-      <c r="H95" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I95" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K95" s="2">
-        <v>0</v>
-      </c>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="K95" s="2"/>
       <c r="L95" s="2"/>
-      <c r="M95" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="2">
-        <v>95</v>
-      </c>
-      <c r="C96" s="3">
-        <v>4</v>
-      </c>
-      <c r="E96" s="4" t="str">
-        <f>IF((C96=""),"",VLOOKUP(C96,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M95" s="2"/>
+    </row>
+    <row r="96" spans="3:13">
+      <c r="C96" s="3"/>
+      <c r="E96" s="4"/>
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
-      <c r="H96" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I96" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K96" s="2">
-        <v>0</v>
-      </c>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="K96" s="2"/>
       <c r="L96" s="2"/>
-      <c r="M96" s="2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="A97" s="2">
-        <v>96</v>
-      </c>
-      <c r="C97" s="3">
-        <v>4</v>
-      </c>
-      <c r="E97" s="4" t="str">
-        <f>IF((C97=""),"",VLOOKUP(C97,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M96" s="2"/>
+    </row>
+    <row r="97" spans="3:13">
+      <c r="C97" s="3"/>
+      <c r="E97" s="4"/>
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
-      <c r="H97" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I97" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K97" s="2">
-        <v>0</v>
-      </c>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="K97" s="2"/>
       <c r="L97" s="2"/>
-      <c r="M97" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="2">
-        <v>97</v>
-      </c>
-      <c r="C98" s="3">
-        <v>4</v>
-      </c>
-      <c r="E98" s="4" t="str">
-        <f>IF((C98=""),"",VLOOKUP(C98,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M97" s="2"/>
+    </row>
+    <row r="98" spans="3:13">
+      <c r="C98" s="3"/>
+      <c r="E98" s="4"/>
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
-      <c r="H98" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I98" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K98" s="2">
-        <v>0</v>
-      </c>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="K98" s="2"/>
       <c r="L98" s="2"/>
-      <c r="M98" s="2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="2">
-        <v>98</v>
-      </c>
-      <c r="C99" s="3">
-        <v>4</v>
-      </c>
-      <c r="E99" s="4" t="str">
-        <f>IF((C99=""),"",VLOOKUP(C99,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M98" s="2"/>
+    </row>
+    <row r="99" spans="3:13">
+      <c r="C99" s="3"/>
+      <c r="E99" s="4"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
-      <c r="H99" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I99" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K99" s="2">
-        <v>0</v>
-      </c>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="K99" s="2"/>
       <c r="L99" s="2"/>
-      <c r="M99" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="2">
-        <v>99</v>
-      </c>
-      <c r="C100" s="3">
-        <v>4</v>
-      </c>
+      <c r="M99" s="2"/>
+    </row>
+    <row r="100" spans="3:13">
+      <c r="C100" s="3"/>
       <c r="D100" s="12"/>
-      <c r="E100" s="4" t="str">
-        <f>IF((C100=""),"",VLOOKUP(C100,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="E100" s="4"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
-      <c r="H100" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I100" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K100" s="2">
-        <v>0</v>
-      </c>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="K100" s="2"/>
       <c r="L100" s="2"/>
-      <c r="M100" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
-      <c r="A101" s="2">
-        <v>100</v>
-      </c>
-      <c r="C101" s="3">
-        <v>4</v>
-      </c>
-      <c r="E101" s="4" t="str">
-        <f>IF((C101=""),"",VLOOKUP(C101,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M100" s="2"/>
+    </row>
+    <row r="101" spans="3:13">
+      <c r="C101" s="3"/>
+      <c r="E101" s="4"/>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
-      <c r="H101" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I101" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K101" s="2">
-        <v>0</v>
-      </c>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="K101" s="2"/>
       <c r="L101" s="2"/>
-      <c r="M101" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
-      <c r="A102" s="2">
-        <v>101</v>
-      </c>
-      <c r="C102" s="3">
-        <v>4</v>
-      </c>
-      <c r="E102" s="4" t="str">
-        <f>IF((C102=""),"",VLOOKUP(C102,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M101" s="2"/>
+    </row>
+    <row r="102" spans="3:13">
+      <c r="C102" s="3"/>
+      <c r="E102" s="4"/>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
-      <c r="H102" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I102" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K102" s="2">
-        <v>0</v>
-      </c>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="K102" s="2"/>
       <c r="L102" s="2"/>
-      <c r="M102" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
-      <c r="A103" s="2">
-        <v>102</v>
-      </c>
-      <c r="C103" s="3">
-        <v>4</v>
-      </c>
-      <c r="E103" s="4" t="str">
-        <f>IF((C103=""),"",VLOOKUP(C103,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M102" s="2"/>
+    </row>
+    <row r="103" spans="3:13">
+      <c r="C103" s="3"/>
+      <c r="E103" s="4"/>
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
-      <c r="H103" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I103" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K103" s="2">
-        <v>0</v>
-      </c>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="K103" s="2"/>
       <c r="L103" s="2"/>
-      <c r="M103" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
-      <c r="A104" s="2">
-        <v>103</v>
-      </c>
-      <c r="C104" s="3">
-        <v>4</v>
-      </c>
-      <c r="E104" s="4" t="str">
-        <f>IF((C104=""),"",VLOOKUP(C104,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M103" s="2"/>
+    </row>
+    <row r="104" spans="3:13">
+      <c r="C104" s="3"/>
+      <c r="E104" s="4"/>
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
-      <c r="H104" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I104" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K104" s="2">
-        <v>0</v>
-      </c>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="K104" s="2"/>
       <c r="L104" s="2"/>
-      <c r="M104" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105" s="2">
-        <v>104</v>
-      </c>
-      <c r="C105" s="3">
-        <v>4</v>
-      </c>
-      <c r="E105" s="4" t="str">
-        <f>IF((C105=""),"",VLOOKUP(C105,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M104" s="2"/>
+    </row>
+    <row r="105" spans="3:13">
+      <c r="C105" s="3"/>
+      <c r="E105" s="4"/>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
-      <c r="H105" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I105" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K105" s="2">
-        <v>0</v>
-      </c>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="K105" s="2"/>
       <c r="L105" s="2"/>
-      <c r="M105" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
-      <c r="A106" s="2">
-        <v>105</v>
-      </c>
-      <c r="C106" s="3">
-        <v>4</v>
-      </c>
-      <c r="E106" s="4" t="str">
-        <f>IF((C106=""),"",VLOOKUP(C106,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M105" s="2"/>
+    </row>
+    <row r="106" spans="3:13">
+      <c r="C106" s="3"/>
+      <c r="E106" s="4"/>
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
-      <c r="H106" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I106" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K106" s="2">
-        <v>0</v>
-      </c>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="K106" s="2"/>
       <c r="L106" s="2"/>
-      <c r="M106" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
-      <c r="A107" s="2">
-        <v>106</v>
-      </c>
-      <c r="C107" s="3">
-        <v>4</v>
-      </c>
-      <c r="E107" s="4" t="str">
-        <f>IF((C107=""),"",VLOOKUP(C107,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M106" s="2"/>
+    </row>
+    <row r="107" spans="3:13">
+      <c r="C107" s="3"/>
+      <c r="E107" s="4"/>
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
-      <c r="H107" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I107" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K107" s="2">
-        <v>0</v>
-      </c>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="K107" s="2"/>
       <c r="L107" s="2"/>
-      <c r="M107" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="A108" s="2">
-        <v>107</v>
-      </c>
-      <c r="C108" s="3">
-        <v>4</v>
-      </c>
-      <c r="E108" s="4" t="str">
-        <f>IF((C108=""),"",VLOOKUP(C108,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M107" s="2"/>
+    </row>
+    <row r="108" spans="3:13">
+      <c r="C108" s="3"/>
+      <c r="E108" s="4"/>
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
-      <c r="H108" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I108" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K108" s="2">
-        <v>0</v>
-      </c>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="K108" s="2"/>
       <c r="L108" s="2"/>
-      <c r="M108" s="2">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
-      <c r="A109" s="2">
-        <v>108</v>
-      </c>
-      <c r="C109" s="3">
-        <v>4</v>
-      </c>
-      <c r="E109" s="4" t="str">
-        <f>IF((C109=""),"",VLOOKUP(C109,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M108" s="2"/>
+    </row>
+    <row r="109" spans="3:13">
+      <c r="C109" s="3"/>
+      <c r="E109" s="4"/>
       <c r="F109" s="11"/>
       <c r="G109" s="11"/>
-      <c r="H109" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I109" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K109" s="2">
-        <v>0</v>
-      </c>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="K109" s="2"/>
       <c r="L109" s="2"/>
-      <c r="M109" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
-      <c r="A110" s="2">
-        <v>109</v>
-      </c>
-      <c r="C110" s="3">
-        <v>4</v>
-      </c>
-      <c r="E110" s="4" t="str">
-        <f>IF((C110=""),"",VLOOKUP(C110,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M109" s="2"/>
+    </row>
+    <row r="110" spans="3:13">
+      <c r="C110" s="3"/>
+      <c r="E110" s="4"/>
       <c r="F110" s="11"/>
       <c r="G110" s="11"/>
-      <c r="H110" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I110" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K110" s="2">
-        <v>0</v>
-      </c>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="K110" s="2"/>
       <c r="L110" s="2"/>
-      <c r="M110" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
-      <c r="A111" s="2">
-        <v>110</v>
-      </c>
-      <c r="C111" s="3">
-        <v>4</v>
-      </c>
-      <c r="E111" s="4" t="str">
-        <f>IF((C111=""),"",VLOOKUP(C111,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M110" s="2"/>
+    </row>
+    <row r="111" spans="3:13">
+      <c r="C111" s="3"/>
+      <c r="E111" s="4"/>
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
-      <c r="H111" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I111" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K111" s="2">
-        <v>0</v>
-      </c>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="K111" s="2"/>
       <c r="L111" s="2"/>
-      <c r="M111" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
-      <c r="A112" s="2">
-        <v>111</v>
-      </c>
-      <c r="C112" s="3">
-        <v>4</v>
-      </c>
-      <c r="E112" s="4" t="str">
-        <f>IF((C112=""),"",VLOOKUP(C112,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M111" s="2"/>
+    </row>
+    <row r="112" spans="3:13">
+      <c r="C112" s="3"/>
+      <c r="E112" s="4"/>
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
-      <c r="H112" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I112" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K112" s="2">
-        <v>0</v>
-      </c>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="K112" s="2"/>
       <c r="L112" s="2"/>
-      <c r="M112" s="2">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
-      <c r="A113" s="2">
-        <v>112</v>
-      </c>
-      <c r="C113" s="3">
-        <v>4</v>
-      </c>
-      <c r="E113" s="4" t="str">
-        <f>IF((C113=""),"",VLOOKUP(C113,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M112" s="2"/>
+    </row>
+    <row r="113" spans="3:13">
+      <c r="C113" s="3"/>
+      <c r="E113" s="4"/>
       <c r="F113" s="11"/>
       <c r="G113" s="11"/>
-      <c r="H113" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I113" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K113" s="2">
-        <v>0</v>
-      </c>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="K113" s="2"/>
       <c r="L113" s="2"/>
-      <c r="M113" s="2">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
-      <c r="A114" s="2">
-        <v>113</v>
-      </c>
-      <c r="C114" s="3">
-        <v>4</v>
-      </c>
-      <c r="E114" s="4" t="str">
-        <f>IF((C114=""),"",VLOOKUP(C114,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M113" s="2"/>
+    </row>
+    <row r="114" spans="3:13">
+      <c r="C114" s="3"/>
+      <c r="E114" s="4"/>
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
-      <c r="H114" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I114" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K114" s="2">
-        <v>0</v>
-      </c>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="K114" s="2"/>
       <c r="L114" s="2"/>
-      <c r="M114" s="2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
-      <c r="A115" s="2">
-        <v>114</v>
-      </c>
-      <c r="C115" s="3">
-        <v>4</v>
-      </c>
-      <c r="E115" s="4" t="str">
-        <f>IF((C115=""),"",VLOOKUP(C115,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M114" s="2"/>
+    </row>
+    <row r="115" spans="3:13">
+      <c r="C115" s="3"/>
+      <c r="E115" s="4"/>
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
-      <c r="H115" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I115" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K115" s="2">
-        <v>0</v>
-      </c>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="K115" s="2"/>
       <c r="L115" s="2"/>
-      <c r="M115" s="2">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
-      <c r="A116" s="2">
-        <v>115</v>
-      </c>
-      <c r="C116" s="3">
-        <v>4</v>
-      </c>
-      <c r="E116" s="4" t="str">
-        <f>IF((C116=""),"",VLOOKUP(C116,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M115" s="2"/>
+    </row>
+    <row r="116" spans="3:13">
+      <c r="C116" s="3"/>
+      <c r="E116" s="4"/>
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
-      <c r="H116" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I116" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K116" s="2">
-        <v>0</v>
-      </c>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="K116" s="2"/>
       <c r="L116" s="2"/>
-      <c r="M116" s="2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
-      <c r="A117" s="2">
-        <v>116</v>
-      </c>
-      <c r="C117" s="3">
-        <v>4</v>
-      </c>
-      <c r="E117" s="4" t="str">
-        <f>IF((C117=""),"",VLOOKUP(C117,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M116" s="2"/>
+    </row>
+    <row r="117" spans="3:13">
+      <c r="C117" s="3"/>
+      <c r="E117" s="4"/>
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
-      <c r="H117" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I117" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K117" s="2">
-        <v>0</v>
-      </c>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="K117" s="2"/>
       <c r="L117" s="2"/>
-      <c r="M117" s="2">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
-      <c r="A118" s="2">
-        <v>117</v>
-      </c>
-      <c r="C118" s="3">
-        <v>4</v>
-      </c>
-      <c r="E118" s="4" t="str">
-        <f>IF((C118=""),"",VLOOKUP(C118,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M117" s="2"/>
+    </row>
+    <row r="118" spans="3:13">
+      <c r="C118" s="3"/>
+      <c r="E118" s="4"/>
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
-      <c r="H118" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I118" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K118" s="2">
-        <v>0</v>
-      </c>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="K118" s="2"/>
       <c r="L118" s="2"/>
-      <c r="M118" s="2">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
-      <c r="A119" s="2">
-        <v>118</v>
-      </c>
-      <c r="C119" s="3">
-        <v>4</v>
-      </c>
-      <c r="E119" s="4" t="str">
-        <f>IF((C119=""),"",VLOOKUP(C119,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M118" s="2"/>
+    </row>
+    <row r="119" spans="3:13">
+      <c r="C119" s="3"/>
+      <c r="E119" s="4"/>
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
-      <c r="H119" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I119" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K119" s="2">
-        <v>0</v>
-      </c>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="K119" s="2"/>
       <c r="L119" s="2"/>
-      <c r="M119" s="2">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
-      <c r="A120" s="2">
-        <v>119</v>
-      </c>
-      <c r="C120" s="3">
-        <v>4</v>
-      </c>
-      <c r="E120" s="4" t="str">
-        <f>IF((C120=""),"",VLOOKUP(C120,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M119" s="2"/>
+    </row>
+    <row r="120" spans="3:13">
+      <c r="C120" s="3"/>
+      <c r="E120" s="4"/>
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
-      <c r="H120" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I120" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K120" s="2">
-        <v>0</v>
-      </c>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="K120" s="2"/>
       <c r="L120" s="2"/>
-      <c r="M120" s="2">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
-      <c r="A121" s="2">
-        <v>120</v>
-      </c>
-      <c r="C121" s="3">
-        <v>4</v>
-      </c>
-      <c r="E121" s="4" t="str">
-        <f>IF((C121=""),"",VLOOKUP(C121,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M120" s="2"/>
+    </row>
+    <row r="121" spans="3:13">
+      <c r="C121" s="3"/>
+      <c r="E121" s="4"/>
       <c r="F121" s="11"/>
       <c r="G121" s="11"/>
-      <c r="H121" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I121" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K121" s="2">
-        <v>0</v>
-      </c>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="K121" s="2"/>
       <c r="L121" s="2"/>
-      <c r="M121" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
-      <c r="A122" s="2">
-        <v>121</v>
-      </c>
-      <c r="C122" s="3">
-        <v>4</v>
-      </c>
-      <c r="E122" s="4" t="str">
-        <f>IF((C122=""),"",VLOOKUP(C122,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M121" s="2"/>
+    </row>
+    <row r="122" spans="3:13">
+      <c r="C122" s="3"/>
+      <c r="E122" s="4"/>
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
-      <c r="H122" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I122" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K122" s="2">
-        <v>0</v>
-      </c>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="K122" s="2"/>
       <c r="L122" s="2"/>
-      <c r="M122" s="2">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
-      <c r="A123" s="2">
-        <v>122</v>
-      </c>
-      <c r="C123" s="3">
-        <v>4</v>
-      </c>
+      <c r="M122" s="2"/>
+    </row>
+    <row r="123" spans="3:13">
+      <c r="C123" s="3"/>
       <c r="D123" s="12"/>
-      <c r="E123" s="4" t="str">
-        <f>IF((C123=""),"",VLOOKUP(C123,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="E123" s="4"/>
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
-      <c r="H123" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I123" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K123" s="2">
-        <v>0</v>
-      </c>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="K123" s="2"/>
       <c r="L123" s="2"/>
-      <c r="M123" s="2">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
-      <c r="A124" s="2">
-        <v>123</v>
-      </c>
-      <c r="C124" s="3">
-        <v>4</v>
-      </c>
-      <c r="E124" s="4" t="str">
-        <f>IF((C124=""),"",VLOOKUP(C124,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M123" s="2"/>
+    </row>
+    <row r="124" spans="3:13">
+      <c r="C124" s="3"/>
+      <c r="E124" s="4"/>
       <c r="F124" s="11"/>
       <c r="G124" s="11"/>
-      <c r="H124" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I124" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K124" s="2">
-        <v>0</v>
-      </c>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="K124" s="2"/>
       <c r="L124" s="2"/>
-      <c r="M124" s="2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
-      <c r="A125" s="2">
-        <v>124</v>
-      </c>
-      <c r="C125" s="3">
-        <v>4</v>
-      </c>
-      <c r="E125" s="4" t="str">
-        <f>IF((C125=""),"",VLOOKUP(C125,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M124" s="2"/>
+    </row>
+    <row r="125" spans="3:13">
+      <c r="C125" s="3"/>
+      <c r="E125" s="4"/>
       <c r="F125" s="11"/>
       <c r="G125" s="11"/>
-      <c r="H125" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I125" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K125" s="2">
-        <v>0</v>
-      </c>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="K125" s="2"/>
       <c r="L125" s="2"/>
-      <c r="M125" s="2">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
-      <c r="A126" s="2">
-        <v>125</v>
-      </c>
-      <c r="C126" s="3">
-        <v>4</v>
-      </c>
-      <c r="E126" s="4" t="str">
-        <f>IF((C126=""),"",VLOOKUP(C126,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M125" s="2"/>
+    </row>
+    <row r="126" spans="3:13">
+      <c r="C126" s="3"/>
+      <c r="E126" s="4"/>
       <c r="F126" s="11"/>
       <c r="G126" s="11"/>
-      <c r="H126" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I126" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K126" s="2">
-        <v>0</v>
-      </c>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="K126" s="2"/>
       <c r="L126" s="2"/>
-      <c r="M126" s="2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
-      <c r="A127" s="2">
-        <v>126</v>
-      </c>
-      <c r="C127" s="3">
-        <v>4</v>
-      </c>
-      <c r="E127" s="4" t="str">
-        <f>IF((C127=""),"",VLOOKUP(C127,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M126" s="2"/>
+    </row>
+    <row r="127" spans="3:13">
+      <c r="C127" s="3"/>
+      <c r="E127" s="4"/>
       <c r="F127" s="11"/>
       <c r="G127" s="11"/>
-      <c r="H127" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I127" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K127" s="2">
-        <v>0</v>
-      </c>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="K127" s="2"/>
       <c r="L127" s="2"/>
-      <c r="M127" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
-      <c r="A128" s="2">
-        <v>127</v>
-      </c>
-      <c r="C128" s="3">
-        <v>4</v>
-      </c>
-      <c r="E128" s="4" t="str">
-        <f>IF((C128=""),"",VLOOKUP(C128,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M127" s="2"/>
+    </row>
+    <row r="128" spans="3:13">
+      <c r="C128" s="3"/>
+      <c r="E128" s="4"/>
       <c r="F128" s="11"/>
       <c r="G128" s="11"/>
-      <c r="H128" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I128" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K128" s="2">
-        <v>0</v>
-      </c>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="K128" s="2"/>
       <c r="L128" s="2"/>
-      <c r="M128" s="2">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13">
-      <c r="A129" s="2">
-        <v>128</v>
-      </c>
-      <c r="C129" s="3">
-        <v>4</v>
-      </c>
-      <c r="E129" s="4" t="str">
-        <f>IF((C129=""),"",VLOOKUP(C129,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M128" s="2"/>
+    </row>
+    <row r="129" spans="3:13">
+      <c r="C129" s="3"/>
+      <c r="E129" s="4"/>
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
-      <c r="H129" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I129" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K129" s="2">
-        <v>0</v>
-      </c>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="K129" s="2"/>
       <c r="L129" s="2"/>
-      <c r="M129" s="2">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13">
-      <c r="A130" s="2">
-        <v>129</v>
-      </c>
-      <c r="C130" s="3">
-        <v>4</v>
-      </c>
-      <c r="E130" s="4" t="str">
-        <f>IF((C130=""),"",VLOOKUP(C130,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M129" s="2"/>
+    </row>
+    <row r="130" spans="3:13">
+      <c r="C130" s="3"/>
+      <c r="E130" s="4"/>
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
-      <c r="H130" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I130" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K130" s="2">
-        <v>0</v>
-      </c>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="K130" s="2"/>
       <c r="L130" s="2"/>
-      <c r="M130" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13">
-      <c r="A131" s="2">
-        <v>130</v>
-      </c>
-      <c r="C131" s="3">
-        <v>4</v>
-      </c>
+      <c r="M130" s="2"/>
+    </row>
+    <row r="131" spans="3:13">
+      <c r="C131" s="3"/>
       <c r="D131" s="27"/>
-      <c r="E131" s="4" t="str">
-        <f>IF((C131=""),"",VLOOKUP(C131,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="E131" s="4"/>
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
-      <c r="H131" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I131" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K131" s="2">
-        <v>0</v>
-      </c>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="K131" s="2"/>
       <c r="L131" s="2"/>
-      <c r="M131" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13">
-      <c r="A132" s="2">
-        <v>131</v>
-      </c>
-      <c r="C132" s="3">
-        <v>4</v>
-      </c>
-      <c r="E132" s="4" t="str">
-        <f>IF((C132=""),"",VLOOKUP(C132,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M131" s="2"/>
+    </row>
+    <row r="132" spans="3:13">
+      <c r="C132" s="3"/>
+      <c r="E132" s="4"/>
       <c r="F132" s="11"/>
       <c r="G132" s="11"/>
-      <c r="H132" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I132" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K132" s="2">
-        <v>0</v>
-      </c>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="K132" s="2"/>
       <c r="L132" s="2"/>
-      <c r="M132" s="2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13">
-      <c r="A133" s="2">
-        <v>132</v>
-      </c>
-      <c r="C133" s="3">
-        <v>4</v>
-      </c>
-      <c r="E133" s="4" t="str">
-        <f>IF((C133=""),"",VLOOKUP(C133,Phases!$A$2:$B$5,2,FALSE))</f>
-        <v>Minister's Designation Decision</v>
-      </c>
+      <c r="M132" s="2"/>
+    </row>
+    <row r="133" spans="3:13">
+      <c r="C133" s="3"/>
+      <c r="E133" s="4"/>
       <c r="F133" s="11"/>
       <c r="G133" s="11"/>
-      <c r="H133" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I133" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K133" s="2">
-        <v>0</v>
-      </c>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="K133" s="2"/>
       <c r="L133" s="2"/>
-      <c r="M133" s="2">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13">
-      <c r="D135" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13">
+      <c r="M133" s="2"/>
+    </row>
+    <row r="135" spans="3:13">
+      <c r="D135" s="28"/>
+    </row>
+    <row r="139" spans="3:13">
       <c r="D139" s="31"/>
     </row>
     <row r="180" spans="4:4">
@@ -6385,11 +5164,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -6406,13 +5185,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>8</v>
@@ -6430,7 +5209,7 @@
         <v>EAO's Viewpoint on Submitted Document</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -6448,7 +5227,7 @@
         <v>EAO's Viewpoint on Submitted Document</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -6466,7 +5245,7 @@
         <v>Minister's Designation Application Withdrawn</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -6484,7 +5263,7 @@
         <v>Direct Submission of Minister's Designation Application - DELETE this Intake Phase!</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -6502,7 +5281,7 @@
         <v>Screening Decision for Minister's Designation Application</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -6520,7 +5299,7 @@
         <v>Screening Decision for Minister's Designation Application</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -6538,7 +5317,7 @@
         <v>Screening Decision for Minister's Designation Application</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E8" s="2">
         <v>7</v>
@@ -6556,7 +5335,7 @@
         <v>Screening Decision for Minister's Designation Application</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E9" s="2">
         <v>8</v>
@@ -6574,7 +5353,7 @@
         <v>Delegation of Decision</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E10" s="2">
         <v>9</v>
@@ -6592,7 +5371,7 @@
         <v>Delegation of Decision</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
@@ -6610,7 +5389,7 @@
         <v>Minister's Designation Process Terminated s.39(d)</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
@@ -6628,7 +5407,7 @@
         <v>Minister's Designation Application Withdrawn</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E13" s="2">
         <v>12</v>
@@ -6646,7 +5425,7 @@
         <v>EAO's Viewpoint on Submitted Document</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
@@ -6664,7 +5443,7 @@
         <v>EAO's Viewpoint on Submitted Document</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
@@ -6682,7 +5461,7 @@
         <v>Minister's Designation Application Withdrawn</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E16" s="2">
         <v>15</v>
@@ -6700,7 +5479,7 @@
         <v>Minister's Designation Application Withdrawn</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E17" s="2">
         <v>16</v>
@@ -6718,7 +5497,7 @@
         <v>Minister's Designation Decision</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E18" s="2">
         <v>17</v>
@@ -6736,7 +5515,7 @@
         <v>Minister's Designation Decision</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E19" s="2">
         <v>18</v>
@@ -6747,154 +5526,99 @@
         <v>19</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="4" t="str">
-        <f>IF((B20=""),"",VLOOKUP(B20,Events!$A$2:$D$57,4,FALSE))</f>
-        <v/>
-      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="25"/>
-      <c r="E20" s="2">
-        <v>19</v>
-      </c>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="4" t="str">
-        <f>IF((B21=""),"",VLOOKUP(B21,Events!$A$2:$D$57,4,FALSE))</f>
-        <v/>
-      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="2">
-        <v>20</v>
-      </c>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="4" t="str">
-        <f>IF((B22=""),"",VLOOKUP(B22,Events!$A$2:$D$57,4,FALSE))</f>
-        <v/>
-      </c>
+      <c r="C22" s="4"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="2">
-        <v>21</v>
-      </c>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="4" t="str">
-        <f>IF((B23=""),"",VLOOKUP(B23,Events!$A$2:$D$57,4,FALSE))</f>
-        <v/>
-      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="2">
-        <v>22</v>
-      </c>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="4" t="str">
-        <f>IF((B24=""),"",VLOOKUP(B24,Events!$A$2:$D$57,4,FALSE))</f>
-        <v/>
-      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="22"/>
-      <c r="E24" s="2">
-        <v>23</v>
-      </c>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="4" t="str">
-        <f>IF((B25=""),"",VLOOKUP(B25,Events!$A$2:$D$57,4,FALSE))</f>
-        <v/>
-      </c>
+      <c r="C25" s="4"/>
       <c r="D25" s="22"/>
-      <c r="E25" s="2">
-        <v>24</v>
-      </c>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="4" t="str">
-        <f>IF((B26=""),"",VLOOKUP(B26,Events!$A$2:$D$57,4,FALSE))</f>
-        <v/>
-      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="2">
-        <v>25</v>
-      </c>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="4" t="str">
-        <f>IF((B27=""),"",VLOOKUP(B27,Events!$A$2:$D$57,4,FALSE))</f>
-        <v/>
-      </c>
+      <c r="C27" s="4"/>
       <c r="D27" s="22"/>
-      <c r="E27" s="2">
-        <v>26</v>
-      </c>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="4" t="str">
-        <f>IF((B28=""),"",VLOOKUP(B28,Events!$A$2:$D$57,4,FALSE))</f>
-        <v/>
-      </c>
+      <c r="C28" s="4"/>
       <c r="D28" s="22"/>
-      <c r="E28" s="2">
-        <v>27</v>
-      </c>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="4" t="str">
-        <f>IF((B29=""),"",VLOOKUP(B29,Events!$A$2:$D$57,4,FALSE))</f>
-        <v/>
-      </c>
+      <c r="C29" s="4"/>
       <c r="D29" s="25"/>
-      <c r="E29" s="2">
-        <v>28</v>
-      </c>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="C30" s="4" t="str">
-        <f>IF((B30=""),"",VLOOKUP(B30,Events!$A$2:$D$57,4,FALSE))</f>
-        <v/>
-      </c>
+      <c r="C30" s="4"/>
       <c r="D30" s="25"/>
-      <c r="E30" s="2">
-        <v>29</v>
-      </c>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
@@ -7160,7 +5884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -7184,19 +5908,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>8</v>
@@ -7214,13 +5938,13 @@
         <v>EAO's Viewpoint is POSITIVE</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -7238,13 +5962,13 @@
         <v>EAO's Viewpoint is NEGATIVE</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G3" s="2">
         <v>2</v>
@@ -7262,13 +5986,13 @@
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G4" s="2">
         <v>3</v>
@@ -7286,13 +6010,13 @@
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G5" s="2">
         <v>4</v>
@@ -7310,13 +6034,13 @@
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
       <c r="D6" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G6" s="2">
         <v>5</v>
@@ -7334,13 +6058,13 @@
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G7" s="2">
         <v>6</v>
@@ -7358,13 +6082,13 @@
         <v>Delete this "Intake Phase" and go directly to "Minister's Designation Review"</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G8" s="2">
         <v>7</v>
@@ -7382,13 +6106,13 @@
         <v>Delete this "Intake Phase" and go directly to "Minister's Designation Review"</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G9" s="2">
         <v>8</v>
@@ -7406,13 +6130,13 @@
         <v>Delete this "Intake Phase" and go directly to "Minister's Designation Review"</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G10" s="2">
         <v>9</v>
@@ -7430,13 +6154,13 @@
         <v>Draft Minister's Designation Application is "incomplete"</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G11" s="2">
         <v>10</v>
@@ -7454,13 +6178,13 @@
         <v>Draft Minister's Designation Application is "incomplete"</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G12" s="2">
         <v>11</v>
@@ -7478,13 +6202,13 @@
         <v>Draft Minister's Designation Application is "incomplete"</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G13" s="2">
         <v>12</v>
@@ -7502,13 +6226,13 @@
         <v>Draft Minister's Designation Application is "incomplete"</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G14" s="2">
         <v>14</v>
@@ -7526,13 +6250,13 @@
         <v>Draft Minister's Designation Application is for an "eligible" project</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G15" s="2">
         <v>15</v>
@@ -7550,13 +6274,13 @@
         <v>Project submitted exceeds RPR threshold(s)</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G16" s="2">
         <v>16</v>
@@ -7574,13 +6298,13 @@
         <v>Project submitted exceeds RPR threshold(s)</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G17" s="2">
         <v>17</v>
@@ -7598,13 +6322,13 @@
         <v>Project submitted exceeds RPR threshold(s)</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G18" s="2">
         <v>18</v>
@@ -7622,13 +6346,13 @@
         <v>Project submitted exceeds RPR threshold(s)</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G19" s="2">
         <v>19</v>
@@ -7646,13 +6370,13 @@
         <v>Project submitted exceeds RPR threshold(s) and is Substantially Started</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G20" s="2">
         <v>20</v>
@@ -7670,13 +6394,13 @@
         <v>Project submitted exceeds RPR threshold(s) and is Substantially Started</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G21" s="2">
         <v>21</v>
@@ -7694,13 +6418,13 @@
         <v>Project submitted exceeds RPR threshold(s) and is Substantially Started</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G22" s="2">
         <v>22</v>
@@ -7718,13 +6442,13 @@
         <v>Minister to make the Minister's Designation Decision</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G23" s="2">
         <v>23</v>
@@ -7742,13 +6466,13 @@
         <v>CEAO is delegated to make the Minister's Designation Decision</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G24" s="2">
         <v>24</v>
@@ -7766,13 +6490,13 @@
         <v>Minister's Designation request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G25" s="2">
         <v>25</v>
@@ -7790,13 +6514,13 @@
         <v>Minister's Designation request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G26" s="2">
         <v>26</v>
@@ -7814,13 +6538,13 @@
         <v>Minister's Designation request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G27" s="2">
         <v>27</v>
@@ -7838,13 +6562,13 @@
         <v>Minister's Designation request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G28" s="2">
         <v>28</v>
@@ -7862,13 +6586,13 @@
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G29" s="2">
         <v>29</v>
@@ -7886,13 +6610,13 @@
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G30" s="2">
         <v>30</v>
@@ -7910,13 +6634,13 @@
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
       <c r="D31" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G31" s="2">
         <v>31</v>
@@ -7934,13 +6658,13 @@
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G32" s="2">
         <v>32</v>
@@ -7958,13 +6682,13 @@
         <v>EAO's Viewpoint is POSITIVE</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G33" s="2">
         <v>33</v>
@@ -7982,13 +6706,13 @@
         <v>EAO's Viewpoint is NEGATIVE</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G34" s="2">
         <v>34</v>
@@ -8006,13 +6730,13 @@
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G35" s="2">
         <v>35</v>
@@ -8030,13 +6754,13 @@
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G36" s="2">
         <v>36</v>
@@ -8054,13 +6778,13 @@
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
       <c r="D37" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="F37" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G37" s="2">
         <v>37</v>
@@ -8078,13 +6802,13 @@
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G38" s="2">
         <v>38</v>
@@ -8102,13 +6826,13 @@
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G39" s="2">
         <v>39</v>
@@ -8126,13 +6850,13 @@
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G40" s="2">
         <v>40</v>
@@ -8150,13 +6874,13 @@
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
       <c r="D41" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G41" s="2">
         <v>41</v>
@@ -8174,13 +6898,13 @@
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G42" s="2">
         <v>42</v>
@@ -8198,13 +6922,13 @@
         <v>Decision Maker Designates Project as Reviewable</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G43" s="2">
         <v>43</v>
@@ -8222,13 +6946,13 @@
         <v>Decision Maker Designates Project as Reviewable</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G44" s="2">
         <v>44</v>
@@ -8246,13 +6970,13 @@
         <v>Decision Maker Declines to Designate Project as Reviewable</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G45" s="2">
         <v>45</v>
@@ -8270,13 +6994,13 @@
         <v>Decision Maker Declines to Designate Project as Reviewable</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G46" s="2">
         <v>46</v>
@@ -9102,7 +7826,7 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="6" t="s">
@@ -9111,11 +7835,11 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="6" t="s">
@@ -9123,19 +7847,19 @@
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T2" s="7"/>
       <c r="U2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
@@ -9178,7 +7902,7 @@
     </row>
     <row r="3" spans="1:59">
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -9187,521 +7911,521 @@
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="S3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U3" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:59">
       <c r="B4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="Q4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="U4" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:59">
       <c r="B5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="H5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="Q5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U5" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:59">
       <c r="B6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="U6" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:59">
       <c r="B7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="U7" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:59">
       <c r="B8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="U8" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:59">
       <c r="B9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="U9" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:59">
       <c r="B10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="U10" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:59">
       <c r="B11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O11" s="8"/>
       <c r="U11" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:59">
       <c r="B12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O12" s="8"/>
       <c r="U12" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:59">
       <c r="B13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O13" s="8"/>
       <c r="U13" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:59">
       <c r="B14" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O14" s="8"/>
       <c r="U14" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:59">
       <c r="B15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M15" s="8"/>
       <c r="O15" s="8"/>
       <c r="U15" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:59">
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M16" s="8"/>
       <c r="U16" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="8:21">
       <c r="H17" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M17" s="8"/>
       <c r="U17" s="8"/>
     </row>
     <row r="18" spans="8:21">
       <c r="H18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M18" s="8"/>
       <c r="U18" s="8"/>
     </row>
     <row r="19" spans="8:21">
       <c r="H19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M19" s="8"/>
       <c r="U19" s="8"/>
     </row>
     <row r="20" spans="8:21">
       <c r="H20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M20" s="8"/>
       <c r="U20" s="8"/>
     </row>
     <row r="21" spans="8:21">
       <c r="H21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M21" s="8"/>
       <c r="U21" s="8"/>
     </row>
     <row r="22" spans="8:21">
       <c r="H22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M22" s="8"/>
       <c r="U22" s="8"/>
     </row>
     <row r="23" spans="8:21">
       <c r="H23" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M23" s="8"/>
       <c r="U23" s="8"/>
     </row>
     <row r="24" spans="8:21">
       <c r="H24" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M24" s="8"/>
       <c r="U24" s="8"/>
     </row>
     <row r="25" spans="8:21">
       <c r="H25" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M25" s="8"/>
       <c r="U25" s="8"/>
     </row>
     <row r="26" spans="8:21">
       <c r="H26" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M26" s="8"/>
       <c r="U26" s="8"/>
     </row>
     <row r="27" spans="8:21">
       <c r="H27" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M27" s="8"/>
       <c r="U27" s="8"/>
     </row>
     <row r="28" spans="8:21">
       <c r="H28" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M28" s="8"/>
       <c r="U28" s="8"/>
     </row>
     <row r="29" spans="8:21">
       <c r="H29" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M29" s="8"/>
       <c r="U29" s="8"/>
     </row>
     <row r="30" spans="8:21">
       <c r="H30" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M30" s="8"/>
       <c r="U30" s="8"/>
     </row>
     <row r="31" spans="8:21">
       <c r="H31" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M31" s="8"/>
       <c r="U31" s="8"/>
     </row>
     <row r="32" spans="8:21">
       <c r="H32" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M32" s="8"/>
       <c r="U32" s="8"/>
     </row>
     <row r="33" spans="8:21">
       <c r="H33" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M33" s="8"/>
       <c r="U33" s="8"/>
     </row>
     <row r="34" spans="8:21">
       <c r="H34" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M34" s="8"/>
       <c r="U34" s="8"/>
     </row>
     <row r="35" spans="8:21">
       <c r="H35" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M35" s="8"/>
       <c r="U35" s="8"/>
     </row>
     <row r="36" spans="8:21">
       <c r="H36" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M36" s="8"/>
       <c r="U36" s="8"/>
     </row>
     <row r="37" spans="8:21">
       <c r="H37" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M37" s="8"/>
       <c r="U37" s="8"/>
     </row>
     <row r="38" spans="8:21">
       <c r="H38" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M38" s="8"/>
       <c r="U38" s="8"/>
     </row>
     <row r="39" spans="8:21">
       <c r="H39" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M39" s="8"/>
       <c r="U39" s="8"/>
     </row>
     <row r="40" spans="8:21">
       <c r="H40" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M40" s="8"/>
       <c r="U40" s="8"/>

--- a/epictrack-api/src/api/templates/event_templates/minister_designation/002_Minister_Designation.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/minister_designation/002_Minister_Designation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\minister_designation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91EBDCC-E964-4592-815E-19A900ED0742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAD8864-4847-4CC3-ABF1-0263C5421051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phases" sheetId="1" r:id="rId1"/>
@@ -1255,7 +1255,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -1937,11 +1937,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M183"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A58" sqref="A58:E136"/>
+      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -3661,7 +3661,7 @@
         <v>23</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I43" s="11" t="b">
         <v>0</v>
@@ -5164,11 +5164,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20:E30"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -5885,10 +5885,10 @@
   <dimension ref="A1:G197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -9451,15 +9451,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
@@ -9468,6 +9459,15 @@
     <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9700,20 +9700,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E491705-4376-42A3-B308-4EDB544680E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91A969FC-83AB-41B8-867D-F5874D3E25B7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
     <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E491705-4376-42A3-B308-4EDB544680E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/epictrack-api/src/api/templates/event_templates/minister_designation/002_Minister_Designation.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/minister_designation/002_Minister_Designation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\minister_designation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAD8864-4847-4CC3-ABF1-0263C5421051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A17603-F51D-4B4F-8F13-278E5CF34B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phases" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Action_Temp" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Actions!$D$1:$D$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Actions!$D$1:$D$199</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Events!$A$1:$M$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outcomes!$A$1:$E$15</definedName>
   </definedNames>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="202">
   <si>
     <t>No</t>
   </si>
@@ -656,12 +656,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -842,7 +849,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -859,14 +866,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -875,7 +882,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -887,16 +894,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -905,45 +912,46 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1255,7 +1263,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -1331,7 +1339,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="37" t="s">
         <v>145</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -1937,11 +1945,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -5882,13 +5890,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G197"/>
+  <dimension ref="A1:G199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -6363,20 +6371,20 @@
         <v>20</v>
       </c>
       <c r="B20" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>IF((B20=""),"",VLOOKUP(B20,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Project submitted exceeds RPR threshold(s) and is Substantially Started</v>
+        <v>Project submitted exceeds RPR threshold(s)</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G20" s="2">
         <v>20</v>
@@ -6394,13 +6402,13 @@
         <v>Project submitted exceeds RPR threshold(s) and is Substantially Started</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G21" s="2">
         <v>21</v>
@@ -6418,13 +6426,13 @@
         <v>Project submitted exceeds RPR threshold(s) and is Substantially Started</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>184</v>
+        <v>83</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G22" s="2">
         <v>22</v>
@@ -6435,20 +6443,20 @@
         <v>23</v>
       </c>
       <c r="B23" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>IF((B23=""),"",VLOOKUP(B23,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Minister to make the Minister's Designation Decision</v>
+        <v>Project submitted exceeds RPR threshold(s) and is Substantially Started</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>141</v>
+        <v>87</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>184</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G23" s="2">
         <v>23</v>
@@ -6459,20 +6467,20 @@
         <v>24</v>
       </c>
       <c r="B24" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>IF((B24=""),"",VLOOKUP(B24,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>CEAO is delegated to make the Minister's Designation Decision</v>
+        <v>Project submitted exceeds RPR threshold(s) and is Substantially Started</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G24" s="2">
         <v>24</v>
@@ -6483,20 +6491,20 @@
         <v>25</v>
       </c>
       <c r="B25" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>IF((B25=""),"",VLOOKUP(B25,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Minister's Designation request is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D25" t="s">
-        <v>83</v>
+        <v>Minister to make the Minister's Designation Decision</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G25" s="2">
         <v>25</v>
@@ -6507,20 +6515,20 @@
         <v>26</v>
       </c>
       <c r="B26" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="4" t="str">
         <f>IF((B26=""),"",VLOOKUP(B26,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Minister's Designation request is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>82</v>
+        <v>CEAO is delegated to make the Minister's Designation Decision</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G26" s="2">
         <v>26</v>
@@ -6537,14 +6545,14 @@
         <f>IF((B27=""),"",VLOOKUP(B27,Outcomes!$A$2:$D$30,4,FALSE))</f>
         <v>Minister's Designation request is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>87</v>
+      <c r="D27" t="s">
+        <v>83</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G27" s="2">
         <v>27</v>
@@ -6562,13 +6570,13 @@
         <v>Minister's Designation request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G28" s="2">
         <v>28</v>
@@ -6579,20 +6587,20 @@
         <v>29</v>
       </c>
       <c r="B29" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>IF((B29=""),"",VLOOKUP(B29,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Minister's Designation Process</v>
-      </c>
-      <c r="D29" t="s">
-        <v>83</v>
+        <v>Minister's Designation request is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G29" s="2">
         <v>29</v>
@@ -6603,20 +6611,20 @@
         <v>30</v>
       </c>
       <c r="B30" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="4" t="str">
         <f>IF((B30=""),"",VLOOKUP(B30,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Minister's Designation Process</v>
+        <v>Minister's Designation request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G30" s="2">
         <v>30</v>
@@ -6633,14 +6641,14 @@
         <f>IF((B31=""),"",VLOOKUP(B31,Outcomes!$A$2:$D$30,4,FALSE))</f>
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>87</v>
+      <c r="D31" t="s">
+        <v>83</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G31" s="2">
         <v>31</v>
@@ -6658,13 +6666,13 @@
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G32" s="2">
         <v>32</v>
@@ -6675,20 +6683,20 @@
         <v>33</v>
       </c>
       <c r="B33" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="4" t="str">
         <f>IF((B33=""),"",VLOOKUP(B33,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>EAO's Viewpoint is POSITIVE</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>140</v>
+        <v>Proponent Withdraws Project from the Minister's Designation Process</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G33" s="2">
         <v>33</v>
@@ -6699,20 +6707,20 @@
         <v>34</v>
       </c>
       <c r="B34" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C34" s="4" t="str">
         <f>IF((B34=""),"",VLOOKUP(B34,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>EAO's Viewpoint is NEGATIVE</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>140</v>
+        <v>Proponent Withdraws Project from the Minister's Designation Process</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G34" s="2">
         <v>34</v>
@@ -6723,20 +6731,20 @@
         <v>35</v>
       </c>
       <c r="B35" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C35" s="4" t="str">
         <f>IF((B35=""),"",VLOOKUP(B35,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Minister's Designation Process</v>
-      </c>
-      <c r="D35" t="s">
-        <v>83</v>
+        <v>EAO's Viewpoint is POSITIVE</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G35" s="2">
         <v>35</v>
@@ -6747,20 +6755,20 @@
         <v>36</v>
       </c>
       <c r="B36" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="4" t="str">
         <f>IF((B36=""),"",VLOOKUP(B36,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Minister's Designation Process</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>82</v>
+        <v>EAO's Viewpoint is NEGATIVE</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G36" s="2">
         <v>36</v>
@@ -6777,14 +6785,14 @@
         <f>IF((B37=""),"",VLOOKUP(B37,Outcomes!$A$2:$D$30,4,FALSE))</f>
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
-      <c r="D37" s="24" t="s">
-        <v>87</v>
+      <c r="D37" t="s">
+        <v>83</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G37" s="2">
         <v>37</v>
@@ -6802,13 +6810,13 @@
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G38" s="2">
         <v>38</v>
@@ -6819,20 +6827,20 @@
         <v>39</v>
       </c>
       <c r="B39" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="4" t="str">
         <f>IF((B39=""),"",VLOOKUP(B39,Outcomes!$A$2:$D$30,4,FALSE))</f>
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
-      <c r="D39" t="s">
-        <v>83</v>
+      <c r="D39" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G39" s="2">
         <v>39</v>
@@ -6843,20 +6851,20 @@
         <v>40</v>
       </c>
       <c r="B40" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" s="4" t="str">
         <f>IF((B40=""),"",VLOOKUP(B40,Outcomes!$A$2:$D$30,4,FALSE))</f>
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G40" s="2">
         <v>40</v>
@@ -6873,14 +6881,14 @@
         <f>IF((B41=""),"",VLOOKUP(B41,Outcomes!$A$2:$D$30,4,FALSE))</f>
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
-      <c r="D41" s="24" t="s">
-        <v>87</v>
+      <c r="D41" t="s">
+        <v>83</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G41" s="2">
         <v>41</v>
@@ -6898,13 +6906,13 @@
         <v>Proponent Withdraws Project from the Minister's Designation Process</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G42" s="2">
         <v>42</v>
@@ -6915,20 +6923,20 @@
         <v>43</v>
       </c>
       <c r="B43" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="4" t="str">
         <f>IF((B43=""),"",VLOOKUP(B43,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Decision Maker Designates Project as Reviewable</v>
-      </c>
-      <c r="D43" s="1" t="s">
+        <v>Proponent Withdraws Project from the Minister's Designation Process</v>
+      </c>
+      <c r="D43" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="32" t="s">
-        <v>184</v>
+      <c r="E43" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G43" s="2">
         <v>43</v>
@@ -6939,20 +6947,20 @@
         <v>44</v>
       </c>
       <c r="B44" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" s="4" t="str">
         <f>IF((B44=""),"",VLOOKUP(B44,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Decision Maker Designates Project as Reviewable</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>185</v>
+        <v>Proponent Withdraws Project from the Minister's Designation Process</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G44" s="2">
         <v>44</v>
@@ -6963,11 +6971,11 @@
         <v>45</v>
       </c>
       <c r="B45" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" s="4" t="str">
         <f>IF((B45=""),"",VLOOKUP(B45,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Decision Maker Declines to Designate Project as Reviewable</v>
+        <v>Decision Maker Designates Project as Reviewable</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>87</v>
@@ -6987,20 +6995,20 @@
         <v>46</v>
       </c>
       <c r="B46" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C46" s="4" t="str">
         <f>IF((B46=""),"",VLOOKUP(B46,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Decision Maker Declines to Designate Project as Reviewable</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>143</v>
+        <v>Decision Maker Designates Project as Reviewable</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G46" s="2">
         <v>46</v>
@@ -7010,8 +7018,22 @@
       <c r="A47" s="2">
         <v>47</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
+      <c r="B47" s="3">
+        <v>18</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <f>IF((B47=""),"",VLOOKUP(B47,Outcomes!$A$2:$D$30,4,FALSE))</f>
+        <v>Decision Maker Declines to Designate Project as Reviewable</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="G47" s="2">
         <v>47</v>
       </c>
@@ -7020,742 +7042,560 @@
       <c r="A48" s="2">
         <v>48</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
+      <c r="B48" s="3">
+        <v>18</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <f>IF((B48=""),"",VLOOKUP(B48,Outcomes!$A$2:$D$30,4,FALSE))</f>
+        <v>Decision Maker Declines to Designate Project as Reviewable</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="G48" s="2">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="2">
-        <v>49</v>
-      </c>
+      <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="4"/>
-      <c r="E49" s="32"/>
-      <c r="G49" s="2">
-        <v>49</v>
-      </c>
+      <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="2">
-        <v>50</v>
-      </c>
+      <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="G50" s="2">
-        <v>50</v>
-      </c>
+      <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="2">
-        <v>51</v>
-      </c>
+      <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
-      <c r="G51" s="2">
-        <v>51</v>
-      </c>
+      <c r="E51" s="32"/>
+      <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="2">
-        <v>52</v>
-      </c>
+      <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
-      <c r="G52" s="2">
-        <v>52</v>
-      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="2">
-        <v>53</v>
-      </c>
+      <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
-      <c r="G53" s="2">
-        <v>53</v>
-      </c>
+      <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="2">
-        <v>54</v>
-      </c>
+      <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
-      <c r="G54" s="2">
-        <v>54</v>
-      </c>
+      <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="2">
-        <v>55</v>
-      </c>
+      <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="4"/>
-      <c r="G55" s="2">
-        <v>55</v>
-      </c>
+      <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="2">
-        <v>56</v>
-      </c>
+      <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="4"/>
-      <c r="G56" s="2">
-        <v>56</v>
-      </c>
+      <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="2">
-        <v>57</v>
-      </c>
+      <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
-      <c r="G57" s="2">
-        <v>57</v>
-      </c>
+      <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="2">
-        <v>58</v>
-      </c>
+      <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="4"/>
-      <c r="G58" s="2">
-        <v>58</v>
-      </c>
+      <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="2">
-        <v>59</v>
-      </c>
+      <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="4"/>
-      <c r="G59" s="2">
-        <v>59</v>
-      </c>
+      <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="2">
-        <v>60</v>
-      </c>
+      <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="4"/>
-      <c r="G60" s="2">
-        <v>60</v>
-      </c>
+      <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="2">
-        <v>61</v>
-      </c>
+      <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="4"/>
-      <c r="G61" s="2">
-        <v>61</v>
-      </c>
+      <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="2">
-        <v>62</v>
-      </c>
+      <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="4"/>
-      <c r="G62" s="2">
-        <v>62</v>
-      </c>
+      <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="2">
-        <v>63</v>
-      </c>
+      <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="4"/>
-      <c r="G63" s="2">
-        <v>63</v>
-      </c>
+      <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="2">
-        <v>64</v>
-      </c>
+      <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="4"/>
-      <c r="G64" s="2">
-        <v>64</v>
-      </c>
+      <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="2">
-        <v>65</v>
-      </c>
+      <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="4"/>
-      <c r="G65" s="2">
-        <v>65</v>
-      </c>
+      <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="2">
-        <v>66</v>
-      </c>
+      <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4"/>
-      <c r="G66" s="2">
-        <v>66</v>
-      </c>
+      <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="2">
-        <v>67</v>
-      </c>
+      <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="4"/>
-      <c r="G67" s="2">
-        <v>67</v>
-      </c>
+      <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="2">
-        <v>68</v>
-      </c>
+      <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="4"/>
-      <c r="G68" s="2">
-        <v>68</v>
-      </c>
+      <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="2">
-        <v>69</v>
-      </c>
+      <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="4"/>
-      <c r="G69" s="2">
-        <v>69</v>
-      </c>
+      <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="2">
-        <v>70</v>
-      </c>
+      <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
-      <c r="G70" s="2">
-        <v>70</v>
-      </c>
+      <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="2">
-        <v>71</v>
-      </c>
+      <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
-      <c r="G71" s="2">
-        <v>71</v>
-      </c>
+      <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="2">
-        <v>72</v>
-      </c>
+      <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="4"/>
-      <c r="G72" s="2">
-        <v>72</v>
-      </c>
+      <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="2">
-        <v>73</v>
-      </c>
+      <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
-      <c r="G73" s="2">
-        <v>73</v>
-      </c>
+      <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="2">
-        <v>74</v>
-      </c>
+      <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
-      <c r="G74" s="2">
-        <v>74</v>
-      </c>
+      <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="2">
-        <v>75</v>
-      </c>
+      <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="4"/>
-      <c r="G75" s="2">
-        <v>75</v>
-      </c>
+      <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="2">
-        <v>76</v>
-      </c>
+      <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="4"/>
-      <c r="G76" s="2">
-        <v>76</v>
-      </c>
+      <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="2">
-        <v>77</v>
-      </c>
+      <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="C77" s="4"/>
-      <c r="G77" s="2">
-        <v>77</v>
-      </c>
+      <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="2">
-        <v>78</v>
-      </c>
+      <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="4"/>
-      <c r="G78" s="2">
-        <v>78</v>
-      </c>
+      <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="2">
-        <v>79</v>
-      </c>
+      <c r="A79" s="2"/>
       <c r="B79" s="3"/>
       <c r="C79" s="4"/>
-      <c r="G79" s="2">
-        <v>79</v>
-      </c>
+      <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="2">
-        <v>80</v>
-      </c>
+      <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="4"/>
-      <c r="G80" s="2">
-        <v>80</v>
-      </c>
+      <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="2">
-        <v>81</v>
-      </c>
+      <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="4"/>
-      <c r="G81" s="2">
-        <v>81</v>
-      </c>
+      <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="2">
-        <v>82</v>
-      </c>
+      <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="4"/>
-      <c r="G82" s="2">
-        <v>82</v>
-      </c>
+      <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="2">
-        <v>83</v>
-      </c>
+      <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="4"/>
-      <c r="G83" s="2">
-        <v>83</v>
-      </c>
+      <c r="G83" s="2"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="2">
-        <v>84</v>
-      </c>
+      <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="4"/>
-      <c r="G84" s="2">
-        <v>84</v>
-      </c>
+      <c r="G84" s="2"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="2">
-        <v>85</v>
-      </c>
+      <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="C85" s="4"/>
-      <c r="G85" s="2">
-        <v>85</v>
-      </c>
+      <c r="G85" s="2"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="2">
-        <v>86</v>
-      </c>
+      <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="C86" s="4"/>
-      <c r="G86" s="2">
-        <v>86</v>
-      </c>
+      <c r="G86" s="2"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="2">
-        <v>87</v>
-      </c>
+      <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="C87" s="4"/>
-      <c r="G87" s="2">
-        <v>87</v>
-      </c>
+      <c r="G87" s="2"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="2">
-        <v>88</v>
-      </c>
+      <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="4"/>
-      <c r="G88" s="2">
-        <v>88</v>
-      </c>
+      <c r="G88" s="2"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="2">
-        <v>89</v>
-      </c>
+      <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="C89" s="4"/>
-      <c r="G89" s="2">
-        <v>89</v>
-      </c>
+      <c r="G89" s="2"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="2">
-        <v>90</v>
-      </c>
+      <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="C90" s="4"/>
-      <c r="G90" s="2">
-        <v>90</v>
-      </c>
+      <c r="G90" s="2"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="2">
-        <v>91</v>
-      </c>
+      <c r="A91" s="2"/>
       <c r="B91" s="3"/>
       <c r="C91" s="4"/>
-      <c r="G91" s="2">
-        <v>91</v>
-      </c>
+      <c r="G91" s="2"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="2">
-        <v>92</v>
-      </c>
+      <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="C92" s="4"/>
-      <c r="G92" s="2">
-        <v>92</v>
-      </c>
+      <c r="G92" s="2"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="2">
-        <v>93</v>
-      </c>
+      <c r="A93" s="2"/>
       <c r="B93" s="3"/>
       <c r="C93" s="4"/>
-      <c r="G93" s="2">
-        <v>93</v>
-      </c>
+      <c r="G93" s="2"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="2">
-        <v>94</v>
-      </c>
+      <c r="A94" s="2"/>
       <c r="B94" s="3"/>
       <c r="C94" s="4"/>
-      <c r="G94" s="2">
-        <v>94</v>
-      </c>
+      <c r="G94" s="2"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="2">
-        <v>95</v>
-      </c>
+      <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="4"/>
-      <c r="G95" s="2">
-        <v>95</v>
-      </c>
+      <c r="G95" s="2"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="2">
-        <v>96</v>
-      </c>
+      <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="C96" s="4"/>
-      <c r="G96" s="2">
-        <v>96</v>
-      </c>
+      <c r="G96" s="2"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="2">
-        <v>97</v>
-      </c>
+      <c r="A97" s="2"/>
       <c r="B97" s="3"/>
       <c r="C97" s="4"/>
-      <c r="G97" s="2">
-        <v>97</v>
-      </c>
+      <c r="G97" s="2"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="2">
-        <v>98</v>
-      </c>
+      <c r="A98" s="2"/>
       <c r="B98" s="3"/>
       <c r="C98" s="4"/>
-      <c r="G98" s="2">
-        <v>98</v>
-      </c>
+      <c r="G98" s="2"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="2">
-        <v>99</v>
-      </c>
+      <c r="A99" s="2"/>
       <c r="B99" s="3"/>
       <c r="C99" s="4"/>
-      <c r="G99" s="2">
-        <v>99</v>
-      </c>
+      <c r="G99" s="2"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="2">
-        <v>100</v>
-      </c>
+      <c r="A100" s="2"/>
       <c r="B100" s="3"/>
       <c r="C100" s="4"/>
-      <c r="D100"/>
-      <c r="G100" s="2">
-        <v>100</v>
-      </c>
+      <c r="G100" s="2"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="D101" s="24"/>
+      <c r="A101" s="2"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="4"/>
+      <c r="G101" s="2"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="D102" s="24"/>
+      <c r="A102" s="2"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="4"/>
+      <c r="D102"/>
+      <c r="G102" s="2"/>
     </row>
     <row r="103" spans="1:7">
       <c r="D103" s="24"/>
     </row>
-    <row r="106" spans="1:7">
-      <c r="D106" s="24"/>
+    <row r="104" spans="1:7">
+      <c r="D104" s="24"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="D105" s="24"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="E108" s="25"/>
+      <c r="D108" s="24"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="D110"/>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="D111" s="24"/>
+      <c r="E110" s="25"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="D112" s="24"/>
+      <c r="D112"/>
     </row>
     <row r="113" spans="4:4">
       <c r="D113" s="24"/>
     </row>
     <row r="114" spans="4:4">
-      <c r="D114"/>
+      <c r="D114" s="24"/>
     </row>
     <row r="115" spans="4:4">
       <c r="D115" s="24"/>
     </row>
     <row r="116" spans="4:4">
-      <c r="D116" s="24"/>
+      <c r="D116"/>
     </row>
     <row r="117" spans="4:4">
       <c r="D117" s="24"/>
     </row>
     <row r="118" spans="4:4">
-      <c r="D118" s="9"/>
-    </row>
-    <row r="121" spans="4:4">
-      <c r="D121"/>
-    </row>
-    <row r="122" spans="4:4">
-      <c r="D122" s="24"/>
+      <c r="D118" s="24"/>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119" s="24"/>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" s="9"/>
     </row>
     <row r="123" spans="4:4">
-      <c r="D123" s="24"/>
+      <c r="D123"/>
     </row>
     <row r="124" spans="4:4">
       <c r="D124" s="24"/>
     </row>
     <row r="125" spans="4:4">
-      <c r="D125"/>
+      <c r="D125" s="24"/>
     </row>
     <row r="126" spans="4:4">
       <c r="D126" s="24"/>
     </row>
     <row r="127" spans="4:4">
-      <c r="D127" s="24"/>
+      <c r="D127"/>
     </row>
     <row r="128" spans="4:4">
       <c r="D128" s="24"/>
     </row>
     <row r="129" spans="4:5">
-      <c r="D129" s="25"/>
-      <c r="E129" s="25"/>
-    </row>
-    <row r="132" spans="4:5">
-      <c r="E132" s="25"/>
+      <c r="D129" s="24"/>
+    </row>
+    <row r="130" spans="4:5">
+      <c r="D130" s="24"/>
+    </row>
+    <row r="131" spans="4:5">
+      <c r="D131" s="25"/>
+      <c r="E131" s="25"/>
     </row>
     <row r="134" spans="4:5">
       <c r="E134" s="25"/>
     </row>
-    <row r="137" spans="4:5">
-      <c r="D137"/>
-    </row>
-    <row r="138" spans="4:5">
-      <c r="D138" s="24"/>
+    <row r="136" spans="4:5">
+      <c r="E136" s="25"/>
     </row>
     <row r="139" spans="4:5">
-      <c r="D139" s="24"/>
+      <c r="D139"/>
     </row>
     <row r="140" spans="4:5">
       <c r="D140" s="24"/>
     </row>
     <row r="141" spans="4:5">
-      <c r="D141"/>
+      <c r="D141" s="24"/>
     </row>
     <row r="142" spans="4:5">
       <c r="D142" s="24"/>
     </row>
     <row r="143" spans="4:5">
-      <c r="D143" s="24"/>
+      <c r="D143"/>
     </row>
     <row r="144" spans="4:5">
       <c r="D144" s="24"/>
     </row>
     <row r="145" spans="4:5">
-      <c r="D145" s="25"/>
-      <c r="E145" s="25"/>
+      <c r="D145" s="24"/>
     </row>
     <row r="146" spans="4:5">
-      <c r="D146"/>
+      <c r="D146" s="24"/>
     </row>
     <row r="147" spans="4:5">
-      <c r="D147" s="24"/>
+      <c r="D147" s="25"/>
+      <c r="E147" s="25"/>
     </row>
     <row r="148" spans="4:5">
-      <c r="D148" s="24"/>
+      <c r="D148"/>
     </row>
     <row r="149" spans="4:5">
       <c r="D149" s="24"/>
     </row>
+    <row r="150" spans="4:5">
+      <c r="D150" s="24"/>
+    </row>
     <row r="151" spans="4:5">
-      <c r="E151" s="25"/>
-    </row>
-    <row r="152" spans="4:5">
-      <c r="D152" s="9"/>
-      <c r="E152" s="25"/>
+      <c r="D151" s="24"/>
     </row>
     <row r="153" spans="4:5">
       <c r="E153" s="25"/>
     </row>
     <row r="154" spans="4:5">
-      <c r="D154" s="25"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="25"/>
     </row>
     <row r="155" spans="4:5">
-      <c r="D155"/>
+      <c r="E155" s="25"/>
     </row>
     <row r="156" spans="4:5">
-      <c r="D156" s="24"/>
+      <c r="D156" s="25"/>
     </row>
     <row r="157" spans="4:5">
-      <c r="D157" s="24"/>
+      <c r="D157"/>
     </row>
     <row r="158" spans="4:5">
       <c r="D158" s="24"/>
     </row>
     <row r="159" spans="4:5">
-      <c r="D159"/>
+      <c r="D159" s="24"/>
     </row>
     <row r="160" spans="4:5">
       <c r="D160" s="24"/>
     </row>
     <row r="161" spans="4:5">
-      <c r="D161" s="24"/>
+      <c r="D161"/>
     </row>
     <row r="162" spans="4:5">
       <c r="D162" s="24"/>
     </row>
-    <row r="165" spans="4:5">
-      <c r="E165" s="25"/>
+    <row r="163" spans="4:5">
+      <c r="D163" s="24"/>
+    </row>
+    <row r="164" spans="4:5">
+      <c r="D164" s="24"/>
     </row>
     <row r="167" spans="4:5">
       <c r="E167" s="25"/>
     </row>
-    <row r="168" spans="4:5">
-      <c r="E168" s="25"/>
-    </row>
     <row r="169" spans="4:5">
       <c r="E169" s="25"/>
     </row>
-    <row r="175" spans="4:5">
-      <c r="E175" s="25"/>
+    <row r="170" spans="4:5">
+      <c r="E170" s="25"/>
+    </row>
+    <row r="171" spans="4:5">
+      <c r="E171" s="25"/>
     </row>
     <row r="177" spans="4:5">
       <c r="E177" s="25"/>
     </row>
-    <row r="178" spans="4:5">
-      <c r="E178" s="25"/>
-    </row>
     <row r="179" spans="4:5">
       <c r="E179" s="25"/>
     </row>
-    <row r="185" spans="4:5">
-      <c r="E185" s="25"/>
-    </row>
-    <row r="186" spans="4:5">
-      <c r="E186" s="25"/>
+    <row r="180" spans="4:5">
+      <c r="E180" s="25"/>
+    </row>
+    <row r="181" spans="4:5">
+      <c r="E181" s="25"/>
     </row>
     <row r="187" spans="4:5">
-      <c r="D187"/>
+      <c r="E187" s="25"/>
     </row>
     <row r="188" spans="4:5">
-      <c r="D188" s="24"/>
+      <c r="E188" s="25"/>
     </row>
     <row r="189" spans="4:5">
-      <c r="D189" s="24"/>
+      <c r="D189"/>
     </row>
     <row r="190" spans="4:5">
       <c r="D190" s="24"/>
     </row>
+    <row r="191" spans="4:5">
+      <c r="D191" s="24"/>
+    </row>
     <row r="192" spans="4:5">
-      <c r="D192" s="25"/>
-    </row>
-    <row r="193" spans="4:4">
-      <c r="D193" s="24"/>
-    </row>
-    <row r="197" spans="4:4">
-      <c r="D197"/>
+      <c r="D192" s="24"/>
+    </row>
+    <row r="194" spans="4:4">
+      <c r="D194" s="25"/>
+    </row>
+    <row r="195" spans="4:4">
+      <c r="D195" s="24"/>
+    </row>
+    <row r="199" spans="4:4">
+      <c r="D199"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D197" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <autoFilter ref="D1:D199" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -7765,13 +7605,13 @@
           <x14:formula1>
             <xm:f>Lookups!$U$3:$U$16</xm:f>
           </x14:formula1>
-          <xm:sqref>D154:D212 D51:D149 D23:D42 D46 D2:D15</xm:sqref>
+          <xm:sqref>D156:D214 D53:D151 D24:D44 D48 D2:D15 D20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>Outcomes!$A$2:$A$30</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B100</xm:sqref>
+          <xm:sqref>B2:B102</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
